--- a/C#InDepth.xlsx
+++ b/C#InDepth.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="22035" windowHeight="6660" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="22035" windowHeight="6660" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="3" sheetId="3" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">The changing face of C# development </t>
   </si>
@@ -406,6 +408,189 @@
   </si>
   <si>
     <t xml:space="preserve">The CountWords method first creates an empty map from string to int. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There are 2 forms of generics in C Sharp: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">generics types (including classes, interfaces, delegates, and structures -- There are no generic enums) and generic methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">type parameter: is a placeholder for a real type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you use a generic type or method, you specify the real types you want to use. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unbound generic type: is the form of a generic type whether none of the type parameters have been provided with type arguments. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the type arguments are specified, the type is said to be a constructed type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Types can be open or closed. </t>
+  </si>
+  <si>
+    <t>An open type is one that still involves a type parameter (as one of the type arguments, or as the array element type, for example)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A closed type is one that isn't open; every aspect of the type is known precisely. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All code actually executes in the context of a closed constructed type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The only time you will see an unbound generic type within c sharp code is within the typeof operator. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;T&gt; is just a list of items of whatever type is specified </t>
+  </si>
+  <si>
+    <t>T is the type parameter for the whole class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference type constraints </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is ensureds that the type argument used is a reference type. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is expressed as T: class and must be the first constraint specified for that type parameter. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. struct RefSample&lt;T&gt; where T : class </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a type parameter is constrained this way, you can compare references with == and !=, but be aware that unless there are any other constraints, only references will be compared. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With a conversion type constraint, you can end up with compiler guaranteed overloads of == and != </t>
+  </si>
+  <si>
+    <t>Value type constraints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expressed as T : struct </t>
+  </si>
+  <si>
+    <t>Ensures that the type argument used is a value type, including enums.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class ValSample&lt;T&gt; where T : struct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when a type parameter is constrained to be a value tpe, comparisons using == and != are prohibited. </t>
+  </si>
+  <si>
+    <t>Constructor Type Constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The constructor type constraint is expressed as T : new() and must be the last constraint for any particular type parameter. </t>
+  </si>
+  <si>
+    <t>Conversion Type Constraint</t>
+  </si>
+  <si>
+    <t>Combining Constraints</t>
+  </si>
+  <si>
+    <t>Saying nothing with nullable types</t>
+  </si>
+  <si>
+    <t>Fast-tracked delegates</t>
+  </si>
+  <si>
+    <t>Saying goodbye to awkward delegate syntax</t>
+  </si>
+  <si>
+    <t>Method groupd coversions</t>
+  </si>
+  <si>
+    <t>Covariance and contravariance</t>
+  </si>
+  <si>
+    <t>5.3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contravariance for delegate parameters </t>
+  </si>
+  <si>
+    <t>5.3.2</t>
+  </si>
+  <si>
+    <t>Covariance of delegate return types</t>
+  </si>
+  <si>
+    <t>5.3.3</t>
+  </si>
+  <si>
+    <t>A small risk incompatibility</t>
+  </si>
+  <si>
+    <t>Inline delegate actions with anonymous methods</t>
+  </si>
+  <si>
+    <t>5.4.1</t>
+  </si>
+  <si>
+    <t>Starting simply: acting on a parameter</t>
+  </si>
+  <si>
+    <t>5.4.2</t>
+  </si>
+  <si>
+    <t>Returning values from anonymous methods</t>
+  </si>
+  <si>
+    <t>5.4.3</t>
+  </si>
+  <si>
+    <t>Ignoring delegate parameters</t>
+  </si>
+  <si>
+    <t>Capturing variables in anonymous methods</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defining closures and different types of variables </t>
+  </si>
+  <si>
+    <t>5.5.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examing the behavior of captured variables </t>
+  </si>
+  <si>
+    <t>5.5.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's the point of captured variables ? </t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>The extended lifetime of captured variables</t>
+  </si>
+  <si>
+    <t>5.5.5</t>
+  </si>
+  <si>
+    <t>Local variable instantiations</t>
+  </si>
+  <si>
+    <t>5.5.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixtures of shared and distinct variables </t>
+  </si>
+  <si>
+    <t>5.5.7</t>
+  </si>
+  <si>
+    <t>Captured variable guidelines and summary</t>
   </si>
 </sst>
 </file>
@@ -1214,15 +1399,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>3</v>
       </c>
@@ -1230,17 +1415,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>3.1</v>
       </c>
@@ -1248,22 +1433,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>3.2</v>
       </c>
@@ -1271,12 +1456,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>91</v>
       </c>
@@ -1284,17 +1469,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>93</v>
       </c>
@@ -1302,140 +1487,470 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3.3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>3.4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D51" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>3.5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>3.6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="C2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5.2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>5.3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>5.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>5.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>95</v>
+        <v>179</v>
       </c>
       <c r="D14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>3.3</v>
-      </c>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>98</v>
+        <v>183</v>
       </c>
       <c r="D16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>3.4</v>
-      </c>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>105</v>
-      </c>
-      <c r="D20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>3.5</v>
-      </c>
-      <c r="C24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30">
-        <v>3.6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>124</v>
+        <v>189</v>
+      </c>
+      <c r="D19" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
